--- a/data/trans_camb/P5_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 16,5</t>
+          <t>-23,85; 23,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 9,49</t>
+          <t>-15,75; 14,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 9,66</t>
+          <t>-15,14; 13,41</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-0,06%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,33; 84,89</t>
+          <t>-56,03; 111,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 101,47</t>
+          <t>-64,54; 172,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 58,01</t>
+          <t>-46,8; 75,53</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 13,78</t>
+          <t>-10,51; 17,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 14,21</t>
+          <t>-9,24; 17,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 9,53</t>
+          <t>-5,89; 13,08</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>27,64%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 191,78</t>
+          <t>-67,4; 475,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 196,09</t>
+          <t>-64,0; 581,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 108,47</t>
+          <t>-43,46; 235,1</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 31,49</t>
+          <t>-11,09; 18,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,7</t>
+          <t>-9,74; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 14,79</t>
+          <t>-7,62; 8,43</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-13,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 458,37</t>
+          <t>-44,37; 160,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 81,77</t>
+          <t>-64,35; 109,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 188,05</t>
+          <t>-45,43; 92,46</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,38</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 8,94</t>
+          <t>-8,94; 9,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,88</t>
+          <t>-7,91; 8,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,83</t>
+          <t>-5,92; 6,42</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 97,76</t>
+          <t>-58,99; 177,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 154,49</t>
+          <t>-59,61; 164,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 79,5</t>
+          <t>-48,43; 96,75</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 10,13</t>
+          <t>-14,54; 13,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 11,97</t>
+          <t>-16,01; 17,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 8,74</t>
+          <t>-10,77; 10,95</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 58,23</t>
+          <t>-49,14; 90,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,04; 86,51</t>
+          <t>-57,3; 122,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 49,57</t>
+          <t>-39,54; 67,67</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 12,33</t>
+          <t>-20,99; 20,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 9,72</t>
+          <t>-14,63; 12,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 8,56</t>
+          <t>-12,92; 12,68</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>-1,78%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 88,62</t>
+          <t>-53,6; 107,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 147,22</t>
+          <t>-75,03; 183,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 79,29</t>
+          <t>-46,11; 84,19</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,29</t>
+          <t>-5,24; 8,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,21</t>
+          <t>-4,6; 4,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,71</t>
+          <t>-3,27; 4,62</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 47,4</t>
+          <t>-23,42; 53,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 40,05</t>
+          <t>-29,8; 46,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 34,56</t>
+          <t>-18,58; 33,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.699807330239312</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.610866981362211</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2369127399577564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,85; 23,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,75; 14,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; 13,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.57800694577752</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.63615090966482</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.35379751308488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,84%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.06138789200723</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.29162054998748</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.98258207301189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-56,03; 111,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-64,54; 172,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-46,8; 75,53</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.08104179987456596</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.08918581032523516</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.009665856877464624</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5275165838357279</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6654411699936571</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.464501346580443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 17,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 17,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 13,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.300239656059538</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.532877394102819</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.784438502472028</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17,35%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>37,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>27,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5375930067192183</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.845530108530024</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.563088269549782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-67,4; 475,24</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-64,0; 581,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-43,46; 235,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.07973403231617</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.528190802156042</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.507085998008316</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.98485846451401</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.91135689269095</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.03155102468949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 18,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 6,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 8,43</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.05514382135844387</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.4781426725703637</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2578822734318548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,1%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-13,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.7088960482928213</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.6436606685921666</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4537046172745983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-44,37; 160,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-64,35; 109,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-45,43; 92,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.613713598097113</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>5.690873062461083</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.287886469004563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>7.399866106453726</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.731142158359943</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.773542997832361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 9,75</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 8,59</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 6,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.670343705949717</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.971048678679848</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.478234544095137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>25.2035412273232</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.107507397704507</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.947975699323598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-58,99; 177,45</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-59,61; 164,99</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-48,43; 96,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.3792439946156005</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1589970225826308</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1241876566008971</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3613033128036545</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.6569862710419058</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4161450828451551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 13,26</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-16,01; 17,3</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; 10,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2.084249847380958</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.080609515491376</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.035187664825841</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.4340425722254779</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.280852039018731</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.57547730160215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-49,14; 90,95</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-57,3; 122,75</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-39,54; 67,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.787545920131095</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.738399473115721</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.702107775857051</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.016831397447438</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>13.14509141139107</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.13336662719618</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-20,99; 20,32</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-14,63; 12,78</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 12,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.03864979176961574</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.3637763734967271</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.156953498364763</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-2,48%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.6225503455295595</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.4973328361187747</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.3904108810843628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-53,6; 107,69</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-75,03; 183,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-46,11; 84,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.661433382963799</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2.481434497717537</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.280268300220679</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0.1261865967592229</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.06569663289549554</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.04639073268798699</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 8,46</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 4,88</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 4,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-14.2043110478856</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-16.72117617244824</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-10.44487434084319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>13.84596105194897</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.52378001354963</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>11.35708581318239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-23,42; 53,63</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 46,46</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 33,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.005684731693142386</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.003031922020551467</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.002111401108223659</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.4829513014550299</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.5695081575421684</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.4062368249463091</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.9474220612080533</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1.19716804670338</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.6692180509852849</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-3.147954801544539</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.2633793442327087</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.157178873834303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-23.77695863380634</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-14.51834738160008</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-13.85753976838764</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>16.72143909063535</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>13.38923618767801</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>11.7095696757501</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.1034818178261233</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.01978531769221456</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.05474338315242838</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.5879873720946251</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.7575294081316793</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.4967291715274897</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.897300858526649</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1.925768951456544</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.7997373376562393</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.202230890351508</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.7286188969477442</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.9644294162586303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4.954319756575678</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.176124205334005</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-2.94188524805056</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.650410179553885</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.423310567181352</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.008558911004817</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.06222260602493384</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.05641265928844862</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.06067061368846224</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.2294139210974663</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2828264975413782</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1647769077301624</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.5166290744623845</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.5568471909740784</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.3535103456956978</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
